--- a/calcific_tendinopathy_ddbb.xlsx
+++ b/calcific_tendinopathy_ddbb.xlsx
@@ -11,7 +11,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="39">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="189" uniqueCount="115">
   <si>
     <t>image</t>
   </si>
@@ -79,24 +79,15 @@
     <t>001460582_001.png</t>
   </si>
   <si>
-    <t>001460582_002.png</t>
-  </si>
-  <si>
     <t>001460682_001.png</t>
   </si>
   <si>
-    <t>001460682_002.png</t>
-  </si>
-  <si>
     <t>004278399Z_001.png</t>
   </si>
   <si>
     <t>4278399Z</t>
   </si>
   <si>
-    <t>004278399Z_002.png</t>
-  </si>
-  <si>
     <t>00RCV_001.png</t>
   </si>
   <si>
@@ -128,6 +119,243 @@
   </si>
   <si>
     <t>00413502_002.png</t>
+  </si>
+  <si>
+    <t>0052235M_001.png</t>
+  </si>
+  <si>
+    <t>52235M</t>
+  </si>
+  <si>
+    <t>0052235M_002.png</t>
+  </si>
+  <si>
+    <t>00279189HD_001.png</t>
+  </si>
+  <si>
+    <t>279189HD</t>
+  </si>
+  <si>
+    <t>00279189HD_002.png</t>
+  </si>
+  <si>
+    <t>00279189HI_001.png</t>
+  </si>
+  <si>
+    <t>279189HI</t>
+  </si>
+  <si>
+    <t>00279189HI_002.png</t>
+  </si>
+  <si>
+    <t>00426947M_001.png</t>
+  </si>
+  <si>
+    <t>426947M</t>
+  </si>
+  <si>
+    <t>00426947M_002.png</t>
+  </si>
+  <si>
+    <t>00564810HD_001.png</t>
+  </si>
+  <si>
+    <t>564810HD</t>
+  </si>
+  <si>
+    <t>00564810HD_002.png</t>
+  </si>
+  <si>
+    <t>00777518FHD_001.png</t>
+  </si>
+  <si>
+    <t>777518FHD</t>
+  </si>
+  <si>
+    <t>00782404HD_001.png</t>
+  </si>
+  <si>
+    <t>782404HD</t>
+  </si>
+  <si>
+    <t>00RCVHD_001.png</t>
+  </si>
+  <si>
+    <t>RCVHD</t>
+  </si>
+  <si>
+    <t>0033372M_001.png</t>
+  </si>
+  <si>
+    <t>33372M</t>
+  </si>
+  <si>
+    <t>0033372M_002.png</t>
+  </si>
+  <si>
+    <t>0080723M_001.png</t>
+  </si>
+  <si>
+    <t>80723M</t>
+  </si>
+  <si>
+    <t>0080723M_002.png</t>
+  </si>
+  <si>
+    <t>0080723MHD_001.png</t>
+  </si>
+  <si>
+    <t>80723MHD</t>
+  </si>
+  <si>
+    <t>0080723MHD_002.png</t>
+  </si>
+  <si>
+    <t>00315181M_001.png</t>
+  </si>
+  <si>
+    <t>315181M</t>
+  </si>
+  <si>
+    <t>00315181M_002.png</t>
+  </si>
+  <si>
+    <t>00497387_001.png</t>
+  </si>
+  <si>
+    <t>00497387_002.png</t>
+  </si>
+  <si>
+    <t>00511151_001.png</t>
+  </si>
+  <si>
+    <t>00511151HI_001.png</t>
+  </si>
+  <si>
+    <t>511151HI</t>
+  </si>
+  <si>
+    <t>00566718F_001.png</t>
+  </si>
+  <si>
+    <t>566718F</t>
+  </si>
+  <si>
+    <t>00566718F_002.png</t>
+  </si>
+  <si>
+    <t>00627038F_001.png</t>
+  </si>
+  <si>
+    <t>627038F</t>
+  </si>
+  <si>
+    <t>00627038F_002.png</t>
+  </si>
+  <si>
+    <t>00650202Z_001.png</t>
+  </si>
+  <si>
+    <t>650202Z</t>
+  </si>
+  <si>
+    <t>00777518F_001.png</t>
+  </si>
+  <si>
+    <t>777518F</t>
+  </si>
+  <si>
+    <t>001065097F_001.png</t>
+  </si>
+  <si>
+    <t>1065097F</t>
+  </si>
+  <si>
+    <t>001065097F_002.png</t>
+  </si>
+  <si>
+    <t>001485874F_001.png</t>
+  </si>
+  <si>
+    <t>1485874F</t>
+  </si>
+  <si>
+    <t>001485874FHD_001.png</t>
+  </si>
+  <si>
+    <t>1485874FHD</t>
+  </si>
+  <si>
+    <t>001485874FHD_002.png</t>
+  </si>
+  <si>
+    <t>001580344F_001.png</t>
+  </si>
+  <si>
+    <t>1580344F</t>
+  </si>
+  <si>
+    <t>001580344F_002.png</t>
+  </si>
+  <si>
+    <t>001580344F_003.png</t>
+  </si>
+  <si>
+    <t>001661043F_001.png</t>
+  </si>
+  <si>
+    <t>1661043F</t>
+  </si>
+  <si>
+    <t>001661043F_002.png</t>
+  </si>
+  <si>
+    <t>001729081F_001.png</t>
+  </si>
+  <si>
+    <t>1729081F</t>
+  </si>
+  <si>
+    <t>001729081F_002.png</t>
+  </si>
+  <si>
+    <t>001747694F_001.png</t>
+  </si>
+  <si>
+    <t>1747694F</t>
+  </si>
+  <si>
+    <t>001747694F_002.png</t>
+  </si>
+  <si>
+    <t>001784532F_001.png</t>
+  </si>
+  <si>
+    <t>1784532F</t>
+  </si>
+  <si>
+    <t>001784532F_002.png</t>
+  </si>
+  <si>
+    <t>001784532FHI_001.png</t>
+  </si>
+  <si>
+    <t>1784532FHI</t>
+  </si>
+  <si>
+    <t>001784532FLS_001.png</t>
+  </si>
+  <si>
+    <t>1784532FLS</t>
+  </si>
+  <si>
+    <t>005698003_001.png</t>
+  </si>
+  <si>
+    <t>005698003HD_001.png</t>
+  </si>
+  <si>
+    <t>5698003HD</t>
   </si>
 </sst>
 </file>
@@ -160,17 +388,11 @@
   <cellStyleXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="6">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
     <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="2" numFmtId="49" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
       <alignment readingOrder="0"/>
     </xf>
     <xf borderId="0" fillId="0" fontId="1" numFmtId="49" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
@@ -178,6 +400,9 @@
     </xf>
     <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment horizontal="left" readingOrder="0"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment readingOrder="0"/>
     </xf>
     <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment horizontal="left" readingOrder="0"/>
@@ -419,13 +644,13 @@
       </c>
     </row>
     <row r="2">
-      <c r="A2" s="2" t="s">
+      <c r="A2" s="1" t="s">
         <v>5</v>
       </c>
       <c r="B2" s="1">
         <v>1.0</v>
       </c>
-      <c r="C2" s="3" t="s">
+      <c r="C2" s="2" t="s">
         <v>6</v>
       </c>
       <c r="D2" s="1">
@@ -436,13 +661,13 @@
       </c>
     </row>
     <row r="3">
-      <c r="A3" s="2" t="s">
+      <c r="A3" s="1" t="s">
         <v>8</v>
       </c>
       <c r="B3" s="1">
         <v>1.0</v>
       </c>
-      <c r="C3" s="3" t="s">
+      <c r="C3" s="2" t="s">
         <v>6</v>
       </c>
       <c r="D3" s="1">
@@ -459,7 +684,7 @@
       <c r="B4" s="1">
         <v>1.0</v>
       </c>
-      <c r="C4" s="4" t="s">
+      <c r="C4" s="2" t="s">
         <v>10</v>
       </c>
       <c r="D4" s="1">
@@ -476,7 +701,7 @@
       <c r="B5" s="1">
         <v>1.0</v>
       </c>
-      <c r="C5" s="4" t="s">
+      <c r="C5" s="2" t="s">
         <v>10</v>
       </c>
       <c r="D5" s="1">
@@ -493,7 +718,7 @@
       <c r="B6" s="1">
         <v>0.0</v>
       </c>
-      <c r="C6" s="4">
+      <c r="C6" s="2">
         <v>94847.0</v>
       </c>
       <c r="D6" s="1">
@@ -541,7 +766,7 @@
       <c r="B9" s="1">
         <v>1.0</v>
       </c>
-      <c r="C9" s="5">
+      <c r="C9" s="3">
         <v>564810.0</v>
       </c>
       <c r="D9" s="1">
@@ -558,7 +783,7 @@
       <c r="B10" s="1">
         <v>1.0</v>
       </c>
-      <c r="C10" s="5">
+      <c r="C10" s="3">
         <v>564810.0</v>
       </c>
       <c r="D10" s="1">
@@ -575,7 +800,7 @@
       <c r="B11" s="1">
         <v>1.0</v>
       </c>
-      <c r="C11" s="5">
+      <c r="C11" s="3">
         <v>782404.0</v>
       </c>
       <c r="D11" s="1">
@@ -592,7 +817,7 @@
       <c r="B12" s="1">
         <v>1.0</v>
       </c>
-      <c r="C12" s="5">
+      <c r="C12" s="3">
         <v>782404.0</v>
       </c>
       <c r="D12" s="1">
@@ -609,7 +834,7 @@
       <c r="B13" s="1">
         <v>1.0</v>
       </c>
-      <c r="C13" s="6">
+      <c r="C13" s="3">
         <v>1460582.0</v>
       </c>
       <c r="D13" s="1">
@@ -626,11 +851,11 @@
       <c r="B14" s="1">
         <v>1.0</v>
       </c>
-      <c r="C14" s="6">
-        <v>1460582.0</v>
+      <c r="C14" s="3">
+        <v>1460682.0</v>
       </c>
       <c r="D14" s="1">
-        <v>1.0</v>
+        <v>4.0</v>
       </c>
       <c r="E14" s="1" t="s">
         <v>7</v>
@@ -643,11 +868,11 @@
       <c r="B15" s="1">
         <v>1.0</v>
       </c>
-      <c r="C15" s="6">
-        <v>1460682.0</v>
+      <c r="C15" s="1" t="s">
+        <v>24</v>
       </c>
       <c r="D15" s="1">
-        <v>4.0</v>
+        <v>3.0</v>
       </c>
       <c r="E15" s="1" t="s">
         <v>7</v>
@@ -655,16 +880,16 @@
     </row>
     <row r="16">
       <c r="A16" s="1" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="B16" s="1">
         <v>1.0</v>
       </c>
-      <c r="C16" s="6">
-        <v>1460682.0</v>
+      <c r="C16" s="1" t="s">
+        <v>26</v>
       </c>
       <c r="D16" s="1">
-        <v>4.0</v>
+        <v>3.0</v>
       </c>
       <c r="E16" s="1" t="s">
         <v>7</v>
@@ -672,7 +897,7 @@
     </row>
     <row r="17">
       <c r="A17" s="1" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="B17" s="1">
         <v>1.0</v>
@@ -689,36 +914,30 @@
     </row>
     <row r="18">
       <c r="A18" s="1" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="B18" s="1">
-        <v>1.0</v>
-      </c>
-      <c r="C18" s="1" t="s">
-        <v>26</v>
+        <v>0.0</v>
+      </c>
+      <c r="C18" s="3">
+        <v>154163.0</v>
       </c>
       <c r="D18" s="1">
-        <v>3.0</v>
-      </c>
-      <c r="E18" s="1" t="s">
-        <v>7</v>
+        <v>-1.0</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="1" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="B19" s="1">
-        <v>1.0</v>
-      </c>
-      <c r="C19" s="1" t="s">
-        <v>29</v>
+        <v>0.0</v>
+      </c>
+      <c r="C19" s="3">
+        <v>154163.0</v>
       </c>
       <c r="D19" s="1">
-        <v>3.0</v>
-      </c>
-      <c r="E19" s="1" t="s">
-        <v>7</v>
+        <v>-1.0</v>
       </c>
     </row>
     <row r="20">
@@ -726,16 +945,13 @@
         <v>30</v>
       </c>
       <c r="B20" s="1">
-        <v>1.0</v>
-      </c>
-      <c r="C20" s="1" t="s">
-        <v>29</v>
+        <v>0.0</v>
+      </c>
+      <c r="C20" s="3">
+        <v>190904.0</v>
       </c>
       <c r="D20" s="1">
-        <v>3.0</v>
-      </c>
-      <c r="E20" s="1" t="s">
-        <v>7</v>
+        <v>-1.0</v>
       </c>
     </row>
     <row r="21">
@@ -745,8 +961,8 @@
       <c r="B21" s="1">
         <v>0.0</v>
       </c>
-      <c r="C21" s="6">
-        <v>154163.0</v>
+      <c r="C21" s="3">
+        <v>190904.0</v>
       </c>
       <c r="D21" s="1">
         <v>-1.0</v>
@@ -759,8 +975,8 @@
       <c r="B22" s="1">
         <v>0.0</v>
       </c>
-      <c r="C22" s="6">
-        <v>154163.0</v>
+      <c r="C22" s="3">
+        <v>310569.0</v>
       </c>
       <c r="D22" s="1">
         <v>-1.0</v>
@@ -773,8 +989,8 @@
       <c r="B23" s="1">
         <v>0.0</v>
       </c>
-      <c r="C23" s="6">
-        <v>190904.0</v>
+      <c r="C23" s="3">
+        <v>310569.0</v>
       </c>
       <c r="D23" s="1">
         <v>-1.0</v>
@@ -787,8 +1003,8 @@
       <c r="B24" s="1">
         <v>0.0</v>
       </c>
-      <c r="C24" s="6">
-        <v>190904.0</v>
+      <c r="C24" s="3">
+        <v>413502.0</v>
       </c>
       <c r="D24" s="1">
         <v>-1.0</v>
@@ -801,8 +1017,8 @@
       <c r="B25" s="1">
         <v>0.0</v>
       </c>
-      <c r="C25" s="6">
-        <v>310569.0</v>
+      <c r="C25" s="3">
+        <v>413502.0</v>
       </c>
       <c r="D25" s="1">
         <v>-1.0</v>
@@ -815,8 +1031,8 @@
       <c r="B26" s="1">
         <v>0.0</v>
       </c>
-      <c r="C26" s="6">
-        <v>310569.0</v>
+      <c r="C26" s="1" t="s">
+        <v>37</v>
       </c>
       <c r="D26" s="1">
         <v>-1.0</v>
@@ -824,13 +1040,13 @@
     </row>
     <row r="27">
       <c r="A27" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="B27" s="1">
+        <v>0.0</v>
+      </c>
+      <c r="C27" s="1" t="s">
         <v>37</v>
-      </c>
-      <c r="B27" s="1">
-        <v>0.0</v>
-      </c>
-      <c r="C27" s="6">
-        <v>413502.0</v>
       </c>
       <c r="D27" s="1">
         <v>-1.0</v>
@@ -838,16 +1054,802 @@
     </row>
     <row r="28">
       <c r="A28" s="1" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="B28" s="1">
         <v>0.0</v>
       </c>
-      <c r="C28" s="6">
-        <v>413502.0</v>
+      <c r="C28" s="1" t="s">
+        <v>40</v>
       </c>
       <c r="D28" s="1">
         <v>-1.0</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="B29" s="1">
+        <v>0.0</v>
+      </c>
+      <c r="C29" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="D29" s="1">
+        <v>-1.0</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="B30" s="1">
+        <v>0.0</v>
+      </c>
+      <c r="C30" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="D30" s="1">
+        <v>-1.0</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="B31" s="1">
+        <v>0.0</v>
+      </c>
+      <c r="C31" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="D31" s="1">
+        <v>-1.0</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="B32" s="1">
+        <v>0.0</v>
+      </c>
+      <c r="C32" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="D32" s="1">
+        <v>-1.0</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="B33" s="1">
+        <v>0.0</v>
+      </c>
+      <c r="C33" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="D33" s="1">
+        <v>-1.0</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="B34" s="1">
+        <v>0.0</v>
+      </c>
+      <c r="C34" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="D34" s="1">
+        <v>-1.0</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="B35" s="1">
+        <v>0.0</v>
+      </c>
+      <c r="C35" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="D35" s="1">
+        <v>-1.0</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="B36" s="1">
+        <v>0.0</v>
+      </c>
+      <c r="C36" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="D36" s="1">
+        <v>-1.0</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="B37" s="1">
+        <v>0.0</v>
+      </c>
+      <c r="C37" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="D37" s="1">
+        <v>-1.0</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="B38" s="1">
+        <v>0.0</v>
+      </c>
+      <c r="C38" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="D38" s="1">
+        <v>-1.0</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="B39" s="1">
+        <v>1.0</v>
+      </c>
+      <c r="C39" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="D39" s="1">
+        <v>2.0</v>
+      </c>
+      <c r="E39" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="B40" s="1">
+        <v>1.0</v>
+      </c>
+      <c r="C40" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="D40" s="1">
+        <v>2.0</v>
+      </c>
+      <c r="E40" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="B41" s="1">
+        <v>1.0</v>
+      </c>
+      <c r="C41" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="D41" s="1">
+        <v>2.0</v>
+      </c>
+      <c r="E41" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="B42" s="1">
+        <v>1.0</v>
+      </c>
+      <c r="C42" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="D42" s="1">
+        <v>2.0</v>
+      </c>
+      <c r="E42" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="B43" s="1">
+        <v>1.0</v>
+      </c>
+      <c r="C43" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="D43" s="1">
+        <v>3.0</v>
+      </c>
+      <c r="E43" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="B44" s="1">
+        <v>1.0</v>
+      </c>
+      <c r="C44" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="D44" s="1">
+        <v>3.0</v>
+      </c>
+      <c r="E44" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="B45" s="1">
+        <v>1.0</v>
+      </c>
+      <c r="C45" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="D45" s="1">
+        <v>1.0</v>
+      </c>
+      <c r="E45" s="1" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="B46" s="1">
+        <v>1.0</v>
+      </c>
+      <c r="C46" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="D46" s="1">
+        <v>1.0</v>
+      </c>
+      <c r="E46" s="1" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="B47" s="1">
+        <v>1.0</v>
+      </c>
+      <c r="C47" s="3">
+        <v>497387.0</v>
+      </c>
+      <c r="D47" s="1">
+        <v>2.0</v>
+      </c>
+      <c r="E47" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="B48" s="1">
+        <v>1.0</v>
+      </c>
+      <c r="C48" s="3">
+        <v>497387.0</v>
+      </c>
+      <c r="D48" s="1">
+        <v>2.0</v>
+      </c>
+      <c r="E48" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="B49" s="1">
+        <v>1.0</v>
+      </c>
+      <c r="C49" s="3">
+        <v>511151.0</v>
+      </c>
+      <c r="D49" s="1">
+        <v>3.0</v>
+      </c>
+      <c r="E49" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="B50" s="1">
+        <v>1.0</v>
+      </c>
+      <c r="C50" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="D50" s="1">
+        <v>4.0</v>
+      </c>
+      <c r="E50" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="B51" s="1">
+        <v>1.0</v>
+      </c>
+      <c r="C51" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="D51" s="1">
+        <v>3.0</v>
+      </c>
+      <c r="E51" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="B52" s="1">
+        <v>1.0</v>
+      </c>
+      <c r="C52" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="D52" s="1">
+        <v>3.0</v>
+      </c>
+      <c r="E52" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="B53" s="1">
+        <v>1.0</v>
+      </c>
+      <c r="C53" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="D53" s="1">
+        <v>1.0</v>
+      </c>
+      <c r="E53" s="1" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="B54" s="1">
+        <v>1.0</v>
+      </c>
+      <c r="C54" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="D54" s="1">
+        <v>1.0</v>
+      </c>
+      <c r="E54" s="1" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="B55" s="1">
+        <v>1.0</v>
+      </c>
+      <c r="C55" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="D55" s="1">
+        <v>4.0</v>
+      </c>
+      <c r="E55" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="B56" s="1">
+        <v>1.0</v>
+      </c>
+      <c r="C56" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="D56" s="1">
+        <v>2.0</v>
+      </c>
+      <c r="E56" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="B57" s="1">
+        <v>1.0</v>
+      </c>
+      <c r="C57" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="D57" s="1">
+        <v>2.0</v>
+      </c>
+      <c r="E57" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="B58" s="1">
+        <v>1.0</v>
+      </c>
+      <c r="C58" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="D58" s="1">
+        <v>2.0</v>
+      </c>
+      <c r="E58" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="B59" s="1">
+        <v>1.0</v>
+      </c>
+      <c r="C59" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="D59" s="1">
+        <v>1.0</v>
+      </c>
+      <c r="E59" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="B60" s="1">
+        <v>1.0</v>
+      </c>
+      <c r="C60" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="D60" s="1">
+        <v>4.0</v>
+      </c>
+      <c r="E60" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="B61" s="1">
+        <v>1.0</v>
+      </c>
+      <c r="C61" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="D61" s="1">
+        <v>4.0</v>
+      </c>
+      <c r="E61" s="1" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="B62" s="1">
+        <v>1.0</v>
+      </c>
+      <c r="C62" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="D62" s="1">
+        <v>1.0</v>
+      </c>
+      <c r="E62" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="B63" s="1">
+        <v>1.0</v>
+      </c>
+      <c r="C63" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="D63" s="1">
+        <v>1.0</v>
+      </c>
+      <c r="E63" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="B64" s="1">
+        <v>1.0</v>
+      </c>
+      <c r="C64" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="D64" s="1">
+        <v>1.0</v>
+      </c>
+      <c r="E64" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="B65" s="1">
+        <v>1.0</v>
+      </c>
+      <c r="C65" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="D65" s="1">
+        <v>4.0</v>
+      </c>
+      <c r="E65" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="B66" s="1">
+        <v>1.0</v>
+      </c>
+      <c r="C66" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="D66" s="1">
+        <v>4.0</v>
+      </c>
+      <c r="E66" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="B67" s="1">
+        <v>1.0</v>
+      </c>
+      <c r="C67" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="D67" s="1">
+        <v>2.0</v>
+      </c>
+      <c r="E67" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="B68" s="1">
+        <v>1.0</v>
+      </c>
+      <c r="C68" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="D68" s="1">
+        <v>2.0</v>
+      </c>
+      <c r="E68" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="B69" s="1">
+        <v>1.0</v>
+      </c>
+      <c r="C69" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="D69" s="1">
+        <v>2.0</v>
+      </c>
+      <c r="E69" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="B70" s="1">
+        <v>1.0</v>
+      </c>
+      <c r="C70" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="D70" s="1">
+        <v>2.0</v>
+      </c>
+      <c r="E70" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="B71" s="1">
+        <v>1.0</v>
+      </c>
+      <c r="C71" s="1" t="s">
+        <v>106</v>
+      </c>
+      <c r="D71" s="1">
+        <v>1.0</v>
+      </c>
+      <c r="E71" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="B72" s="1">
+        <v>1.0</v>
+      </c>
+      <c r="C72" s="1" t="s">
+        <v>106</v>
+      </c>
+      <c r="D72" s="1">
+        <v>1.0</v>
+      </c>
+      <c r="E72" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="B73" s="1">
+        <v>1.0</v>
+      </c>
+      <c r="C73" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="D73" s="4">
+        <v>2.0</v>
+      </c>
+      <c r="E73" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="B74" s="1">
+        <v>1.0</v>
+      </c>
+      <c r="C74" s="1" t="s">
+        <v>111</v>
+      </c>
+      <c r="D74" s="1">
+        <v>4.0</v>
+      </c>
+      <c r="E74" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" s="1" t="s">
+        <v>112</v>
+      </c>
+      <c r="B75" s="1">
+        <v>1.0</v>
+      </c>
+      <c r="C75" s="5">
+        <v>5698003.0</v>
+      </c>
+      <c r="D75" s="1">
+        <v>2.0</v>
+      </c>
+      <c r="E75" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" s="1" t="s">
+        <v>113</v>
+      </c>
+      <c r="B76" s="1">
+        <v>1.0</v>
+      </c>
+      <c r="C76" s="1" t="s">
+        <v>114</v>
+      </c>
+      <c r="D76" s="1">
+        <v>3.0</v>
+      </c>
+      <c r="E76" s="1" t="s">
+        <v>7</v>
       </c>
     </row>
   </sheetData>
